--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1846921.528836387</v>
+        <v>-1847633.830659431</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="I9" t="n">
         <v>3.199249640013477</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>162.4266631253753</v>
       </c>
       <c r="F11" t="n">
         <v>188.4979333192472</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929903</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>137.9932353499671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>34.55798648881215</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>188.4979333192472</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T12" t="n">
-        <v>102.829921287742</v>
+        <v>36.82265945242251</v>
       </c>
       <c r="U12" t="n">
-        <v>188.4979333192472</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>174.6347144303462</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240816</v>
+        <v>62.86150506240827</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929895</v>
+        <v>16.73328122929906</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538029</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>37.06546297050539</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>69.35197034760149</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.50909269006111</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693642</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242239</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382072</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233436</v>
+        <v>62.50065676233447</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394371</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640272</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095773</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256623</v>
+        <v>25.28169700256634</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311268</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725512</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138202</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517464</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110053</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>52.47517038390259</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>187.8188763847891</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>24.44510218153468</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216708</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
         <v>40.44879289878247</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="T21" t="n">
-        <v>24.4397230043541</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>123.3547148889768</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.43972300435418</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>188.4979333192472</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>106.6843534095292</v>
+      </c>
+      <c r="Y24" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2570,10 +2570,10 @@
         <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818323</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>9.256758706365488</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301063</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>213.2207213635313</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818323</v>
+        <v>8.981130875818238</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="30">
@@ -2877,13 +2877,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.9031924866031</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489348</v>
+        <v>1.486173081489262</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140131</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469673</v>
+        <v>67.07417771787206</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024685</v>
+        <v>9.8995356100246</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456468</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,22 +3150,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>74.02704476102842</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>0.6584632146251079</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602344</v>
+        <v>229.547634326987</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453707</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215647</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491015</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595862</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536749</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063799</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228189</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288335</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949822</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843746</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2263991621812</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>41.60441600810562</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>113.0347188963643</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229694</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306666</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215647</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491015</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595862</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536749</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
         <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063799</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228189</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288335</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949822</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843746</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2263991621812</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>125.461028370823</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>34.1411457357076</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229694</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306666</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>15.52067392633513</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>46.59558990358391</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>24.96546289390749</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8297728777305</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F8" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>9.501125117781436</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>12.66838226139478</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>12.66838226139478</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>12.66838226139478</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="C9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="D9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="E9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="F9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="H9" t="n">
         <v>6.719070557086891</v>
@@ -4884,49 +4884,49 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
-        <v>9.757711402041103</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.719070557086891</v>
+        <v>12.79699856005391</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.9782572732726</v>
+        <v>369.5491240035424</v>
       </c>
       <c r="C11" t="n">
-        <v>268.9782572732726</v>
+        <v>369.5491240035424</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9782572732726</v>
+        <v>369.5491240035424</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9782572732726</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="F11" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554812</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>98.17571186577317</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8825731524723</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6034156332325</v>
+        <v>162.1536558828889</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4653147201798</v>
+        <v>284.1802538698178</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558721</v>
+        <v>470.7932078558725</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>505.0138425485403</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550901</v>
+        <v>704.1243288271096</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088765</v>
+        <v>704.1243288271096</v>
       </c>
       <c r="U11" t="n">
-        <v>569.7271815385917</v>
+        <v>704.1243288271096</v>
       </c>
       <c r="V11" t="n">
-        <v>569.7271815385917</v>
+        <v>559.9510768512669</v>
       </c>
       <c r="W11" t="n">
-        <v>408.3653636873805</v>
+        <v>559.9510768512669</v>
       </c>
       <c r="X11" t="n">
-        <v>408.3653636873805</v>
+        <v>559.9510768512669</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.9782572732726</v>
+        <v>559.9510768512669</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5443673638207</v>
+        <v>220.2315406621952</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553977</v>
+        <v>210.7670079639142</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553977</v>
+        <v>49.98689172494599</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553977</v>
+        <v>49.98689172494599</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119298</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T12" t="n">
-        <v>452.7823287505743</v>
+        <v>696.279973182524</v>
       </c>
       <c r="U12" t="n">
-        <v>262.3803759028498</v>
+        <v>636.6034021281596</v>
       </c>
       <c r="V12" t="n">
-        <v>199.2483993752393</v>
+        <v>573.471425600549</v>
       </c>
       <c r="W12" t="n">
-        <v>109.797571674286</v>
+        <v>484.0205978995956</v>
       </c>
       <c r="X12" t="n">
-        <v>70.23731885973768</v>
+        <v>444.4603450850473</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.5443673638207</v>
+        <v>398.7673935891303</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>47.71579242887329</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E13" t="n">
-        <v>83.82319414030766</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="F13" t="n">
-        <v>83.82319414030766</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82319414030766</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="H13" t="n">
-        <v>83.82319414030766</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="I13" t="n">
-        <v>83.82319414030766</v>
+        <v>51.18723637697413</v>
       </c>
       <c r="J13" t="n">
-        <v>83.82319414030766</v>
+        <v>108.5168063814314</v>
       </c>
       <c r="K13" t="n">
-        <v>83.82319414030766</v>
+        <v>218.5239075551704</v>
       </c>
       <c r="L13" t="n">
-        <v>83.82319414030766</v>
+        <v>218.5239075551704</v>
       </c>
       <c r="M13" t="n">
-        <v>83.82319414030766</v>
+        <v>218.5239075551704</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811545</v>
+        <v>218.5239075551704</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348926</v>
+        <v>351.8217271348929</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351834</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>649.7821629687217</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="C14" t="n">
-        <v>649.7821629687217</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="D14" t="n">
-        <v>649.7821629687217</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="E14" t="n">
-        <v>459.3802101209969</v>
+        <v>249.155228117955</v>
       </c>
       <c r="F14" t="n">
-        <v>268.9782572732724</v>
+        <v>249.155228117955</v>
       </c>
       <c r="G14" t="n">
-        <v>78.57630442554802</v>
+        <v>249.155228117955</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554802</v>
+        <v>78.57630442554813</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888281</v>
+        <v>127.9904616471781</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7526286748829</v>
+        <v>314.6034156332328</v>
       </c>
       <c r="M14" t="n">
-        <v>552.6145277618302</v>
+        <v>395.4653147201801</v>
       </c>
       <c r="N14" t="n">
-        <v>627.9424208975227</v>
+        <v>470.7932078558725</v>
       </c>
       <c r="O14" t="n">
-        <v>662.1630555901904</v>
+        <v>505.0138425485403</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769888</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769888</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049698</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550907</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T14" t="n">
-        <v>687.2220245550907</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="U14" t="n">
-        <v>687.2220245550907</v>
+        <v>569.7271815385918</v>
       </c>
       <c r="V14" t="n">
-        <v>687.2220245550907</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="W14" t="n">
-        <v>687.2220245550907</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="X14" t="n">
-        <v>649.7821629687217</v>
+        <v>425.5539295627491</v>
       </c>
       <c r="Y14" t="n">
-        <v>649.7821629687217</v>
+        <v>425.5539295627491</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398.7673935891311</v>
+        <v>245.5600462489033</v>
       </c>
       <c r="C15" t="n">
-        <v>209.3551193220948</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="D15" t="n">
-        <v>209.3551193220948</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="E15" t="n">
-        <v>209.3551193220948</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="F15" t="n">
-        <v>48.92740303933888</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G15" t="n">
-        <v>48.92740303933888</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H15" t="n">
-        <v>48.92740303933888</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I15" t="n">
-        <v>48.92740303933888</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097943</v>
@@ -5382,25 +5382,25 @@
         <v>747.0528889596544</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900216</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825243</v>
+        <v>543.072625842297</v>
       </c>
       <c r="U15" t="n">
-        <v>636.6034021281599</v>
+        <v>483.3960547879325</v>
       </c>
       <c r="V15" t="n">
-        <v>573.4714256005494</v>
+        <v>420.264078260322</v>
       </c>
       <c r="W15" t="n">
-        <v>484.0205978995962</v>
+        <v>330.8132505593686</v>
       </c>
       <c r="X15" t="n">
-        <v>444.4603450850479</v>
+        <v>291.2529977448203</v>
       </c>
       <c r="Y15" t="n">
-        <v>398.7673935891311</v>
+        <v>245.5600462489033</v>
       </c>
     </row>
     <row r="16">
@@ -5437,46 +5437,46 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>15.07983466553978</v>
+        <v>125.0869358392788</v>
       </c>
       <c r="L16" t="n">
-        <v>61.15695601452089</v>
+        <v>269.6234192651188</v>
       </c>
       <c r="M16" t="n">
-        <v>212.5590407811536</v>
+        <v>269.6234192651188</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5590407811536</v>
+        <v>269.6234192651188</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348918</v>
+        <v>408.8861056188568</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351826</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426675</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633077</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015777</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578856</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604132</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064919</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117128</v>
+        <v>98.68003660117151</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099486</v>
+        <v>54.46671210099498</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.590752271862</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940548</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
         <v>70.95335735993307</v>
       </c>
       <c r="J17" t="n">
-        <v>257.5663113459878</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K17" t="n">
-        <v>400.8049361360789</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L17" t="n">
-        <v>447.5257786168391</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M17" t="n">
-        <v>528.3876777037864</v>
+        <v>198.5360989276405</v>
       </c>
       <c r="N17" t="n">
-        <v>603.7155708394788</v>
+        <v>273.8639920633329</v>
       </c>
       <c r="O17" t="n">
-        <v>637.9362055321466</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="P17" t="n">
-        <v>637.9362055321466</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="Q17" t="n">
-        <v>637.9362055321466</v>
+        <v>462.1637696110815</v>
       </c>
       <c r="R17" t="n">
-        <v>637.9362055321466</v>
+        <v>563.7042339002529</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369975</v>
+        <v>632.9356035051038</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369975</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.465566023504</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.500875753078</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5329465118933</v>
+        <v>407.7444067694745</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118933</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118933</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I18" t="n">
         <v>68.0850572755424</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O18" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596544</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="S18" t="n">
-        <v>556.6509361119299</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="T18" t="n">
-        <v>556.6509361119299</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="U18" t="n">
-        <v>556.6509361119299</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="V18" t="n">
-        <v>556.6509361119299</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="W18" t="n">
-        <v>366.9348993596177</v>
+        <v>610.9722821020001</v>
       </c>
       <c r="X18" t="n">
-        <v>366.9348993596177</v>
+        <v>586.2802596964095</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5329465118933</v>
+        <v>586.2802596964095</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210058</v>
+        <v>369.369783721005</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553978</v>
+        <v>139.9600105181306</v>
       </c>
       <c r="K20" t="n">
-        <v>107.6509158338102</v>
+        <v>139.9600105181306</v>
       </c>
       <c r="L20" t="n">
-        <v>154.3717583145703</v>
+        <v>186.6808529988908</v>
       </c>
       <c r="M20" t="n">
-        <v>235.2336574015176</v>
+        <v>267.5427520858381</v>
       </c>
       <c r="N20" t="n">
-        <v>310.56155053721</v>
+        <v>342.8706452215304</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7821852298778</v>
+        <v>377.0912799141982</v>
       </c>
       <c r="P20" t="n">
-        <v>344.7821852298778</v>
+        <v>377.0912799141982</v>
       </c>
       <c r="Q20" t="n">
-        <v>531.3951392159325</v>
+        <v>563.7042339002529</v>
       </c>
       <c r="R20" t="n">
-        <v>632.9356035051039</v>
+        <v>563.7042339002529</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051039</v>
+        <v>632.9356035051038</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369975</v>
+        <v>707.1675751369974</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879309</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.465566023504</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.500875753078</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.07983466553978</v>
+        <v>241.6482611541279</v>
       </c>
       <c r="C21" t="n">
-        <v>15.07983466553978</v>
+        <v>241.6482611541279</v>
       </c>
       <c r="D21" t="n">
-        <v>15.07983466553978</v>
+        <v>241.6482611541279</v>
       </c>
       <c r="E21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097943</v>
@@ -5853,28 +5853,28 @@
         <v>747.0528889596543</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821020001</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="S21" t="n">
-        <v>420.5703292542756</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="T21" t="n">
-        <v>395.8837403609887</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="U21" t="n">
-        <v>395.8837403609887</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="V21" t="n">
-        <v>395.8837403609887</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="W21" t="n">
-        <v>205.4817875132642</v>
+        <v>366.2489832642055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.4817875132642</v>
+        <v>241.6482611541279</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.07983466553978</v>
+        <v>241.6482611541279</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040791</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553978</v>
+        <v>225.032500215014</v>
       </c>
       <c r="K23" t="n">
-        <v>15.07983466553978</v>
+        <v>225.032500215014</v>
       </c>
       <c r="L23" t="n">
-        <v>61.8006771462999</v>
+        <v>271.7533426957742</v>
       </c>
       <c r="M23" t="n">
-        <v>142.6625762332472</v>
+        <v>352.6152417827215</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9904693689396</v>
+        <v>427.9431349184139</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2111040616073</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="P23" t="n">
-        <v>391.6063433698691</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="Q23" t="n">
-        <v>578.2192973559239</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="R23" t="n">
-        <v>679.7597616450953</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7597616450953</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
         <v>753.9917332769888</v>
@@ -6026,13 +6026,13 @@
         <v>730.3229325879306</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235038</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="C24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="D24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
         <v>670.366620018889</v>
@@ -6090,28 +6090,28 @@
         <v>747.0528889596544</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821020002</v>
+        <v>747.0528889596544</v>
       </c>
       <c r="S24" t="n">
-        <v>420.5703292542757</v>
+        <v>556.6509361119299</v>
       </c>
       <c r="T24" t="n">
-        <v>230.1683764065513</v>
+        <v>366.2489832642054</v>
       </c>
       <c r="U24" t="n">
-        <v>230.1683764065513</v>
+        <v>366.2489832642054</v>
       </c>
       <c r="V24" t="n">
-        <v>230.1683764065513</v>
+        <v>366.2489832642054</v>
       </c>
       <c r="W24" t="n">
-        <v>230.1683764065513</v>
+        <v>366.2489832642054</v>
       </c>
       <c r="X24" t="n">
-        <v>39.76642355882683</v>
+        <v>258.4870101232668</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.76642355882683</v>
+        <v>68.0850572755424</v>
       </c>
     </row>
     <row r="25">
@@ -6203,61 +6203,61 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874108</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942527</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471345</v>
+        <v>406.0329511471338</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141563</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845028</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523987</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581081</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
@@ -6266,10 +6266,10 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.27218334470578</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C27" t="n">
-        <v>98.27218334470578</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>98.27218334470578</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
         <v>372.889591163402</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339611</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="R27" t="n">
-        <v>650.1011692763069</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="S27" t="n">
-        <v>650.1011692763069</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="T27" t="n">
-        <v>432.9588222000541</v>
+        <v>791.6194355204982</v>
       </c>
       <c r="U27" t="n">
-        <v>408.9756717223898</v>
+        <v>767.6362850428338</v>
       </c>
       <c r="V27" t="n">
-        <v>381.5371157714794</v>
+        <v>740.1977290919234</v>
       </c>
       <c r="W27" t="n">
-        <v>327.7797086472262</v>
+        <v>470.7991598222147</v>
       </c>
       <c r="X27" t="n">
-        <v>108.2717142639226</v>
+        <v>251.2911654389111</v>
       </c>
       <c r="Y27" t="n">
-        <v>98.27218334470578</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>107.0072226338003</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>107.0072226338003</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>107.0072226338003</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>154.1909719744413</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N28" t="n">
-        <v>202.3364366059169</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O28" t="n">
-        <v>202.3364366059169</v>
+        <v>210.162507276104</v>
       </c>
       <c r="P28" t="n">
-        <v>202.3364366059169</v>
+        <v>210.162507276104</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.2082727013262</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909797</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239877</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032153</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737348</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389712</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874105</v>
+        <v>882.7966579874108</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942526</v>
+        <v>757.2538204942529</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350251</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471337</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141563</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7197485984496</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528778</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523988</v>
+        <v>634.0135279523994</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581077</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6488,7 +6488,7 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
         <v>1772.589137514411</v>
@@ -6503,7 +6503,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.6351144932707</v>
+        <v>386.1090899211466</v>
       </c>
       <c r="C30" t="n">
-        <v>476.2228402262344</v>
+        <v>196.6968156541103</v>
       </c>
       <c r="D30" t="n">
-        <v>315.4427239872662</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E30" t="n">
-        <v>141.8795201086806</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F30" t="n">
-        <v>141.8795201086806</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G30" t="n">
         <v>35.91669941514208</v>
@@ -6570,22 +6570,22 @@
         <v>786.1817761339611</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031638</v>
+        <v>784.6805912031639</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254994</v>
+        <v>760.6974407254996</v>
       </c>
       <c r="V30" t="n">
-        <v>733.258884774589</v>
+        <v>733.2588847745893</v>
       </c>
       <c r="W30" t="n">
-        <v>679.5014776503358</v>
+        <v>463.8603155048806</v>
       </c>
       <c r="X30" t="n">
-        <v>675.6346454124877</v>
+        <v>396.1086208403634</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.6351144932707</v>
+        <v>386.1090899211466</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>82.47399327165039</v>
+        <v>82.47399327165047</v>
       </c>
       <c r="D31" t="n">
-        <v>82.47399327165039</v>
+        <v>82.47399327165047</v>
       </c>
       <c r="E31" t="n">
-        <v>82.47399327165039</v>
+        <v>153.5645164903087</v>
       </c>
       <c r="F31" t="n">
-        <v>156.2862828941491</v>
+        <v>153.5645164903087</v>
       </c>
       <c r="G31" t="n">
-        <v>200.6224187350291</v>
+        <v>197.9006523311888</v>
       </c>
       <c r="H31" t="n">
-        <v>247.8061680756701</v>
+        <v>197.9006523311888</v>
       </c>
       <c r="I31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="J31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="K31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760096</v>
+        <v>246.0461169626644</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737348</v>
+        <v>48.13006019737331</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389712</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514208</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806691</v>
+        <v>877.5242945806685</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601012</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734639</v>
+        <v>594.0635360734634</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581624</v>
+        <v>403.268799458162</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977757</v>
@@ -6701,19 +6701,19 @@
         <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>357.4097545154556</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>616.2999327831723</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596884</v>
+        <v>909.3311676570761</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218728</v>
@@ -6731,7 +6731,7 @@
         <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178544</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
         <v>1617.620437351991</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
         <v>35.660759443941</v>
@@ -6780,7 +6780,7 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982137</v>
+        <v>73.62408545982139</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881955</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.92583616276</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>785.92583616276</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="S33" t="n">
-        <v>711.1510434748525</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="T33" t="n">
-        <v>494.0086963985997</v>
+        <v>792.1995661218872</v>
       </c>
       <c r="U33" t="n">
-        <v>470.8616164935256</v>
+        <v>560.3332688219003</v>
       </c>
       <c r="V33" t="n">
-        <v>444.2591311152053</v>
+        <v>317.2535507255344</v>
       </c>
       <c r="W33" t="n">
-        <v>174.8605618454966</v>
+        <v>47.85498145582573</v>
       </c>
       <c r="X33" t="n">
-        <v>171.8298001802386</v>
+        <v>44.82421979056772</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6859,10 +6859,10 @@
         <v>35.660759443941</v>
       </c>
       <c r="K34" t="n">
-        <v>181.4704148930994</v>
+        <v>35.660759443941</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966775</v>
+        <v>215.9997971452004</v>
       </c>
       <c r="M34" t="n">
         <v>260.0540801966775</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
         <v>544.083381551352</v>
@@ -6926,61 +6926,61 @@
         <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786685</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K35" t="n">
-        <v>278.6930660259309</v>
+        <v>278.6930660259308</v>
       </c>
       <c r="L35" t="n">
-        <v>325.413908506691</v>
+        <v>325.4139085066909</v>
       </c>
       <c r="M35" t="n">
-        <v>406.2758075936383</v>
+        <v>406.2758075936382</v>
       </c>
       <c r="N35" t="n">
         <v>481.6037007293306</v>
       </c>
       <c r="O35" t="n">
-        <v>515.8243354219984</v>
+        <v>640.2529724049562</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835844</v>
+        <v>894.6504963510844</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902426</v>
+        <v>894.6504963510844</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354054</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962477</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984133</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413455</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782775</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83686474960231</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83686474960231</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83686474960231</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960231</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
         <v>58.80019076548268</v>
@@ -7023,43 +7023,43 @@
         <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276558</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857557</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684213</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684213</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684213</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684213</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684213</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="V36" t="n">
-        <v>729.0772788339711</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="W36" t="n">
-        <v>465.9855521975783</v>
+        <v>514.9490591493632</v>
       </c>
       <c r="X36" t="n">
-        <v>246.4775578142747</v>
+        <v>295.4410647660595</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83686474960231</v>
+        <v>181.2645810323582</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.037801664111</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078076</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078076</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960231</v>
+        <v>56.03780166411087</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361105</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513527</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756369</v>
+        <v>477.7066225756367</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338515</v>
+        <v>377.2826389338514</v>
       </c>
       <c r="F38" t="n">
         <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786685</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.575769799987</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>51.575769799987</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="K38" t="n">
-        <v>309.4319710763156</v>
+        <v>254.9068407865508</v>
       </c>
       <c r="L38" t="n">
-        <v>356.1528135570757</v>
+        <v>301.6276832673109</v>
       </c>
       <c r="M38" t="n">
-        <v>437.0147126440229</v>
+        <v>382.4895823542582</v>
       </c>
       <c r="N38" t="n">
-        <v>512.3426057797153</v>
+        <v>457.8174754899507</v>
       </c>
       <c r="O38" t="n">
-        <v>546.5632404723831</v>
+        <v>492.0381101826184</v>
       </c>
       <c r="P38" t="n">
-        <v>800.9607644185112</v>
+        <v>746.4356341287466</v>
       </c>
       <c r="Q38" t="n">
-        <v>981.4847213251694</v>
+        <v>926.959591035405</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984151</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413462</v>
+        <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.417523378278</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447616</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>424.8178318518487</v>
+        <v>558.0800827478422</v>
       </c>
       <c r="C39" t="n">
-        <v>424.8178318518487</v>
+        <v>558.0800827478422</v>
       </c>
       <c r="D39" t="n">
-        <v>424.8178318518487</v>
+        <v>558.0800827478422</v>
       </c>
       <c r="E39" t="n">
-        <v>424.8178318518487</v>
+        <v>384.5168788692566</v>
       </c>
       <c r="F39" t="n">
-        <v>298.0895203661689</v>
+        <v>224.0891625865007</v>
       </c>
       <c r="G39" t="n">
-        <v>147.8424451392731</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960231</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960231</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960231</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
         <v>58.80019076548268</v>
@@ -7260,43 +7260,43 @@
         <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978623</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276558</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857557</v>
+        <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857557</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="R39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="S39" t="n">
-        <v>641.9601789281015</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="T39" t="n">
-        <v>424.8178318518487</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="U39" t="n">
-        <v>424.8178318518487</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="V39" t="n">
-        <v>424.8178318518487</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="W39" t="n">
-        <v>424.8178318518487</v>
+        <v>771.1019414684214</v>
       </c>
       <c r="X39" t="n">
-        <v>424.8178318518487</v>
+        <v>736.6159356747773</v>
       </c>
       <c r="Y39" t="n">
-        <v>424.8178318518487</v>
+        <v>736.6159356747773</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960231</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="O40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="P40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="R40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="S40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="T40" t="n">
-        <v>56.037801664111</v>
+        <v>37.60190385293249</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078076</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078076</v>
+        <v>47.51751629070293</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960231</v>
+        <v>29.08161847952454</v>
       </c>
     </row>
     <row r="41">
@@ -7409,31 +7409,31 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>238.141253562805</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349433</v>
+        <v>284.8620960435652</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.373680145212</v>
+        <v>365.7239951305125</v>
       </c>
       <c r="N41" t="n">
-        <v>1341.301244804225</v>
+        <v>679.6515597895261</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.521879496893</v>
+        <v>952.4718660055152</v>
       </c>
       <c r="P41" t="n">
-        <v>1384.940325262768</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1384.940325262768</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1384.940325262768</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>500.1938788400105</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1938788400105</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D42" t="n">
-        <v>500.1938788400105</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
-        <v>500.1938788400105</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>339.7661625572546</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>189.5190873303588</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>189.5190873303588</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
-        <v>81.071198094008</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400536</v>
@@ -7500,40 +7500,40 @@
         <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430246</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620589</v>
+        <v>701.644783262059</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="U42" t="n">
-        <v>769.5924481097193</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="V42" t="n">
-        <v>769.5924481097193</v>
+        <v>738.2036440922964</v>
       </c>
       <c r="W42" t="n">
-        <v>500.1938788400105</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="X42" t="n">
-        <v>500.1938788400105</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="Y42" t="n">
-        <v>500.1938788400105</v>
+        <v>712.2492861513514</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.32656119962644</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1336235606951</v>
@@ -7646,19 +7646,19 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400536</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>238.141253562805</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>284.8620960435651</v>
+        <v>523.4617675668865</v>
       </c>
       <c r="M44" t="n">
         <v>604.3236666538337</v>
       </c>
       <c r="N44" t="n">
-        <v>918.2512313128474</v>
+        <v>679.6515597895261</v>
       </c>
       <c r="O44" t="n">
         <v>952.4718660055152</v>
@@ -7737,34 +7737,34 @@
         <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430245</v>
+        <v>569.9438436430246</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620589</v>
+        <v>701.644783262059</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201588</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028244</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028244</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028244</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="T45" t="n">
-        <v>778.3310522028244</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="U45" t="n">
-        <v>538.7067395797045</v>
+        <v>760.0522572333837</v>
       </c>
       <c r="V45" t="n">
-        <v>297.4645447537141</v>
+        <v>516.9725391370177</v>
       </c>
       <c r="W45" t="n">
-        <v>28.06597548400536</v>
+        <v>247.573969867309</v>
       </c>
       <c r="X45" t="n">
         <v>28.06597548400536</v>
@@ -7783,34 +7783,34 @@
         <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>101.873037845074</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400536</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M46" t="n">
         <v>130.1336235606951</v>
@@ -8532,10 +8532,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
@@ -8544,10 +8544,10 @@
         <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.5187640737787</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518344</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
@@ -23264,7 +23264,7 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>30.90398478319304</v>
       </c>
       <c r="F11" t="n">
         <v>36.5530521676985</v>
@@ -23276,7 +23276,7 @@
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240828</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929906</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.14406791541499</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247654</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281109</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321057</v>
+        <v>18.6959334782222</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769838</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033345</v>
+        <v>240.6899088095808</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675137</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958187</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>144.5689871711328</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.151434834260726e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1155424.025748396</v>
+        <v>1155424.025748395</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1155424.025748396</v>
+        <v>1155424.025748395</v>
       </c>
     </row>
     <row r="7">
@@ -26317,40 +26317,40 @@
         <v>242531.2986735264</v>
       </c>
       <c r="D2" t="n">
-        <v>242671.3618227662</v>
+        <v>242671.3618227661</v>
       </c>
       <c r="E2" t="n">
         <v>208927.2429060117</v>
       </c>
       <c r="F2" t="n">
-        <v>208927.2429060115</v>
+        <v>208927.2429060117</v>
       </c>
       <c r="G2" t="n">
-        <v>243022.6009360973</v>
+        <v>243022.6009360974</v>
       </c>
       <c r="H2" t="n">
         <v>243022.6009360974</v>
       </c>
       <c r="I2" t="n">
-        <v>243022.6009360973</v>
+        <v>243022.6009360974</v>
       </c>
       <c r="J2" t="n">
         <v>243022.6009360971</v>
       </c>
       <c r="K2" t="n">
-        <v>243022.6009360971</v>
+        <v>243022.6009360972</v>
       </c>
       <c r="L2" t="n">
-        <v>243022.600936097</v>
+        <v>243022.6009360969</v>
       </c>
       <c r="M2" t="n">
-        <v>243022.6009360974</v>
+        <v>243022.6009360973</v>
       </c>
       <c r="N2" t="n">
         <v>243022.6009360973</v>
       </c>
       <c r="O2" t="n">
-        <v>243022.6009360973</v>
+        <v>243022.6009360974</v>
       </c>
       <c r="P2" t="n">
         <v>243022.6009360974</v>
@@ -26375,10 +26375,10 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913322</v>
+        <v>95439.52541913331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262461</v>
+        <v>96101.69331262464</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924374</v>
+        <v>72254.91485924364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>373436.5296138824</v>
       </c>
       <c r="K4" t="n">
-        <v>373436.5296138824</v>
+        <v>373436.5296138825</v>
       </c>
       <c r="L4" t="n">
-        <v>373421.7396465039</v>
+        <v>373421.7396465038</v>
       </c>
       <c r="M4" t="n">
         <v>372611.8022731853</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205464.9274933088</v>
+        <v>-205469.393877514</v>
       </c>
       <c r="C6" t="n">
-        <v>-205464.9274933088</v>
+        <v>-205469.393877514</v>
       </c>
       <c r="D6" t="n">
-        <v>-206377.1489495754</v>
+        <v>-206380.3420324239</v>
       </c>
       <c r="E6" t="n">
-        <v>-400862.7078249914</v>
+        <v>-401172.665625265</v>
       </c>
       <c r="F6" t="n">
-        <v>-121736.5926462776</v>
+        <v>-122046.5504465508</v>
       </c>
       <c r="G6" t="n">
         <v>-263718.0099066232</v>
@@ -26540,7 +26540,7 @@
         <v>-168278.4844874899</v>
       </c>
       <c r="I6" t="n">
-        <v>-168278.48448749</v>
+        <v>-168278.4844874899</v>
       </c>
       <c r="J6" t="n">
         <v>-321359.8889048281</v>
@@ -26549,16 +26549,16 @@
         <v>-177863.6058979488</v>
       </c>
       <c r="L6" t="n">
-        <v>-273825.5796058796</v>
+        <v>-273825.5796058797</v>
       </c>
       <c r="M6" t="n">
-        <v>-216699.8632280981</v>
+        <v>-216699.8632280982</v>
       </c>
       <c r="N6" t="n">
         <v>-170502.4969357754</v>
       </c>
       <c r="O6" t="n">
-        <v>-246028.3066889227</v>
+        <v>-246028.3066889225</v>
       </c>
       <c r="P6" t="n">
         <v>-173773.3918296789</v>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26707,10 +26707,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
+        <v>213.4847505240009</v>
+      </c>
+      <c r="K2" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
@@ -26811,19 +26811,19 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.958742689276</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.958742689276</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492626</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
         <v>350.824693550067</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540355</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929172</v>
+        <v>63.13594470929155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003816</v>
+        <v>90.36388418003827</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.7627431524012</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27938,7 +27938,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27947,7 +27947,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
         <v>111.6565698077035</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.4130537153763</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -28111,19 +28111,19 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>160.7168484597793</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>41.58050393937529</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>124.2654526311162</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
@@ -28217,13 +28217,13 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757161</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>112.1410023177483</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>48.73013617764146</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530678</v>
@@ -28251,7 +28251,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>178.1482641530678</v>
@@ -28269,10 +28269,10 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L13" t="n">
         <v>32.15181624817887</v>
@@ -28281,10 +28281,10 @@
         <v>25.21686539889344</v>
       </c>
       <c r="N13" t="n">
-        <v>146.5563660974095</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>172.1231461995167</v>
       </c>
       <c r="P13" t="n">
         <v>178.1482641530678</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530679</v>
+        <v>19.41168532311843</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>107.8482124387639</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742195</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>118.1661811767644</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>18.96607769384148</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530679</v>
+        <v>26.47299028624307</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28506,52 +28506,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918997</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>78.69436306533152</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530679</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N16" t="n">
         <v>16.52015736928134</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530679</v>
+        <v>171.438755995008</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>151.4126717322516</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>245.347234870837</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,13 +28655,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757104</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
         <v>214.9709236054903</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.8857071922225</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>192.8678122579359</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477841</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
         <v>67.02998013918997</v>
@@ -28761,7 +28761,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,13 +28819,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459405</v>
+        <v>146.4853090233794</v>
       </c>
       <c r="K20" t="n">
-        <v>100.2333347405135</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,16 +28840,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566692</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R20" t="n">
+        <v>194.8815453823668</v>
+      </c>
+      <c r="S20" t="n">
         <v>297.4476709269844</v>
-      </c>
-      <c r="S20" t="n">
-        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
         <v>297.4476709269844</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757104</v>
+        <v>3.092858000757133</v>
       </c>
       <c r="T21" t="n">
-        <v>190.5312006011362</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280694968886</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776438</v>
+        <v>78.20665025776441</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>93.95819955049383</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477841</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K22" t="n">
         <v>67.02998013918997</v>
@@ -28998,7 +28998,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,13 +29056,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459405</v>
+        <v>232.4171167980091</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300958</v>
+        <v>6.727192146300951</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>155.895244379636</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>28.03544737954842</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757099</v>
+        <v>3.092858000757104</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624307</v>
+        <v>26.47299028624306</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022339</v>
+        <v>110.6285610299414</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K25" t="n">
         <v>67.02998013918997</v>
@@ -29235,7 +29235,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240018</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>162.5708131334342</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>10.1635647704943</v>
       </c>
     </row>
     <row r="28">
@@ -29439,7 +29439,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,13 +29448,13 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>213.484750524001</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013918997</v>
@@ -29469,37 +29469,37 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q28" t="n">
-        <v>181.6329820196582</v>
+        <v>183.7826494989474</v>
       </c>
       <c r="R28" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="30">
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>43.84141198802367</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29642,22 +29642,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4847505240009</v>
+        <v>150.2387367215985</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="31">
@@ -29670,28 +29670,28 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4847505240009</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H31" t="n">
-        <v>213.4847505240009</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>183.3947318056817</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918997</v>
@@ -29706,10 +29706,10 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777679</v>
+        <v>57.7984771425693</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29718,25 +29718,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407517</v>
       </c>
       <c r="L32" t="n">
         <v>214.3124603908652</v>
@@ -29788,7 +29788,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>194.1953356407518</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3124603908652</v>
@@ -29843,7 +29843,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
         <v>107.3634103439873</v>
@@ -29870,22 +29870,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
-        <v>117.5637465589759</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901642</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29928,16 +29928,16 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
+        <v>67.02998013918997</v>
+      </c>
+      <c r="L34" t="n">
         <v>214.3124603908652</v>
       </c>
-      <c r="L34" t="n">
-        <v>111.5292559487628</v>
-      </c>
       <c r="M34" t="n">
-        <v>25.21686539889344</v>
+        <v>69.71614120846628</v>
       </c>
       <c r="N34" t="n">
         <v>16.52015736928134</v>
@@ -29946,7 +29946,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -30007,10 +30007,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163298</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,19 +30022,19 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>125.6854919019775</v>
       </c>
       <c r="P35" t="n">
-        <v>170.8550552415797</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
         <v>272.0591682562687</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30122,16 +30122,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>199.0445049072966</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982721</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>110.3495672376613</v>
       </c>
     </row>
     <row r="37">
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>204.2572768609996</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30165,7 +30165,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K37" t="n">
         <v>67.02998013918997</v>
@@ -30183,7 +30183,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30210,7 +30210,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>252.6977747480155</v>
       </c>
     </row>
     <row r="38">
@@ -30241,13 +30241,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J38" t="n">
-        <v>76.78161896459405</v>
-      </c>
       <c r="K38" t="n">
-        <v>267.1880015163298</v>
+        <v>47.88396208386714</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30268,16 +30268,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>255.849743518676</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,22 +30308,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>33.36241074910535</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
@@ -30365,7 +30365,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>183.171768703763</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,13 +30396,13 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8243976546666</v>
+        <v>174.4307465166948</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
         <v>67.02998013918997</v>
@@ -30417,10 +30417,10 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O40" t="n">
-        <v>73.03538593162395</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30438,7 +30438,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W40" t="n">
         <v>272.0591682562687</v>
@@ -30481,34 +30481,34 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>218.9244427309471</v>
       </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>24.60555393278026</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71173703742195</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8815453823668</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
         <v>241.009769215476</v>
@@ -30539,28 +30539,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161034</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
@@ -30593,13 +30593,13 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>221.7073955705535</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>194.0533310118183</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>206.1629668423631</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>241.009769215476</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30639,7 +30639,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013918997</v>
@@ -30657,10 +30657,10 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845879</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
@@ -30718,22 +30718,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459405</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>218.9244427309471</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>54.69629248006511</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="N44" t="n">
-        <v>241.009769215476</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.86945587416103</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30830,16 +30830,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>212.2626066029811</v>
       </c>
       <c r="V45" t="n">
-        <v>1.81914803767171</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30855,10 +30855,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>241.009769215476</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>173.7286964281057</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30876,7 +30876,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.239607582909</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
         <v>67.02998013918997</v>
@@ -30885,7 +30885,7 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3154998197921</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N46" t="n">
         <v>16.52015736928134</v>
@@ -30894,7 +30894,7 @@
         <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H11" t="n">
         <v>4.165312310217852</v>
@@ -31762,16 +31762,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M11" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O11" t="n">
         <v>68.52759814556021</v>
@@ -31780,7 +31780,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318172</v>
@@ -31792,7 +31792,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H12" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N12" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P12" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31923,10 +31923,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N13" t="n">
         <v>27.91832636309192</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H14" t="n">
         <v>4.165312310217852</v>
@@ -31999,16 +31999,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M14" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O14" t="n">
         <v>68.52759814556021</v>
@@ -32017,7 +32017,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318172</v>
@@ -32029,7 +32029,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N15" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P15" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32160,10 +32160,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N16" t="n">
         <v>27.91832636309192</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H17" t="n">
         <v>4.165312310217852</v>
@@ -32236,16 +32236,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M17" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O17" t="n">
         <v>68.52759814556021</v>
@@ -32254,7 +32254,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318172</v>
@@ -32266,7 +32266,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N18" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P18" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32397,10 +32397,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
         <v>27.91832636309192</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H20" t="n">
         <v>4.165312310217852</v>
@@ -32473,16 +32473,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M20" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O20" t="n">
         <v>68.52759814556021</v>
@@ -32491,7 +32491,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318172</v>
@@ -32503,7 +32503,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H21" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N21" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P21" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32634,10 +32634,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
         <v>27.91832636309192</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H23" t="n">
         <v>4.165312310217852</v>
@@ -32710,16 +32710,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M23" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O23" t="n">
         <v>68.52759814556021</v>
@@ -32728,7 +32728,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318172</v>
@@ -32740,7 +32740,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N24" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P24" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32871,10 +32871,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N25" t="n">
         <v>27.91832636309192</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H26" t="n">
         <v>4.165312310217852</v>
@@ -32947,16 +32947,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M26" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O26" t="n">
         <v>68.52759814556021</v>
@@ -32965,7 +32965,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318172</v>
@@ -32977,7 +32977,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N27" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P27" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33108,10 +33108,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N28" t="n">
         <v>27.91832636309192</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H29" t="n">
         <v>4.165312310217852</v>
@@ -33184,16 +33184,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M29" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O29" t="n">
         <v>68.52759814556021</v>
@@ -33202,7 +33202,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318172</v>
@@ -33214,7 +33214,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N30" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P30" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33345,10 +33345,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N31" t="n">
         <v>27.91832636309192</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H32" t="n">
         <v>4.165312310217852</v>
@@ -33421,16 +33421,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M32" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O32" t="n">
         <v>68.52759814556021</v>
@@ -33439,7 +33439,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318172</v>
@@ -33451,7 +33451,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H33" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N33" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P33" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S33" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33582,10 +33582,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N34" t="n">
         <v>27.91832636309192</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H35" t="n">
         <v>4.165312310217852</v>
@@ -33658,16 +33658,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M35" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O35" t="n">
         <v>68.52759814556021</v>
@@ -33676,7 +33676,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318172</v>
@@ -33688,7 +33688,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H36" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N36" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P36" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S36" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33819,10 +33819,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N37" t="n">
         <v>27.91832636309192</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H38" t="n">
         <v>4.165312310217852</v>
@@ -33895,16 +33895,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M38" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O38" t="n">
         <v>68.52759814556021</v>
@@ -33913,7 +33913,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318172</v>
@@ -33925,7 +33925,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H39" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N39" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P39" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S39" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34056,10 +34056,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N40" t="n">
         <v>27.91832636309192</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H41" t="n">
         <v>4.165312310217852</v>
@@ -34132,16 +34132,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M41" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O41" t="n">
         <v>68.52759814556021</v>
@@ -34150,7 +34150,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318172</v>
@@ -34162,7 +34162,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H42" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N42" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P42" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S42" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375088</v>
@@ -34293,10 +34293,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N43" t="n">
         <v>27.91832636309192</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631736</v>
       </c>
       <c r="H44" t="n">
         <v>4.165312310217852</v>
@@ -34369,16 +34369,16 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246058</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727857</v>
       </c>
       <c r="M44" t="n">
         <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401902</v>
       </c>
       <c r="O44" t="n">
         <v>68.52759814556021</v>
@@ -34387,7 +34387,7 @@
         <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178819</v>
       </c>
       <c r="R44" t="n">
         <v>25.54857067318172</v>
@@ -34399,7 +34399,7 @@
         <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H45" t="n">
         <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729623</v>
+        <v>7.492409103729624</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000173</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447579</v>
+        <v>47.2498997044758</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133252</v>
       </c>
       <c r="N45" t="n">
         <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134024</v>
       </c>
       <c r="P45" t="n">
         <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795503</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922249</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
         <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971365</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375088</v>
@@ -34530,10 +34530,10 @@
         <v>21.19623423752833</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N46" t="n">
         <v>27.91832636309192</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542653</v>
+        <v>8.203174846542655</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629249</v>
+        <v>3.17943513562925</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679433</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590781</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
@@ -35264,10 +35264,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.93522949518524</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>123.2591898857867</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564584</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084281</v>
+        <v>36.47212294084278</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015882</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>130.0362087281281</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>134.6442622017399</v>
       </c>
       <c r="P13" t="n">
         <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937858</v>
+        <v>50.93127818937856</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067669</v>
+        <v>12.68449317681748</v>
       </c>
       <c r="L14" t="n">
         <v>188.4979333192472</v>
@@ -35656,16 +35656,16 @@
         <v>81.67868594641141</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O14" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P14" t="n">
-        <v>92.75624008767517</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>46.54254681715263</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6693801552911</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>112.9601570947591</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937867</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>56.43790171150837</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>144.6854795859506</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O17" t="n">
         <v>34.56629766936138</v>
@@ -35902,16 +35902,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>155.635497833415</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
         <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433466</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543469</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.70369005878541</v>
       </c>
       <c r="K20" t="n">
-        <v>93.50614259421256</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M20" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O20" t="n">
         <v>34.56629766936138</v>
@@ -36142,10 +36142,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
         <v>74.98178952716516</v>
@@ -36209,7 +36209,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404388</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>155.6354978334151</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M23" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O23" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P23" t="n">
-        <v>140.8032720285473</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
         <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
@@ -36601,7 +36601,7 @@
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704132</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163412</v>
+        <v>18.6032051416341</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.80860931177597</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,10 +36744,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66035286933437</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63178245603592</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.41599605596904</v>
+        <v>56.56566353525818</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05478936836684</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
-        <v>260.6775207065869</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.6032051416341</v>
+        <v>18.60320514163418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36966,25 +36966,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.02756955202858</v>
+        <v>47.02756955202867</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.80860931177602</v>
       </c>
       <c r="F31" t="n">
-        <v>74.55786830555428</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.78397559684846</v>
+        <v>44.78397559684855</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66035286933435</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.54176373771669</v>
+        <v>48.63178245603598</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>20.31959314479251</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>187.4681434944507</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734512</v>
@@ -37084,7 +37084,7 @@
         <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
-        <v>179.1033632896631</v>
+        <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534432</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>147.2824802516752</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>79.37743970058393</v>
+        <v>182.1606441426863</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>44.49927580957284</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37306,37 +37306,37 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M35" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936138</v>
+        <v>160.2517895713389</v>
       </c>
       <c r="P35" t="n">
-        <v>155.7630828904909</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188467</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390183</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782049</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644941</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361892</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.55650193384716</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
     </row>
     <row r="38">
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079262</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700289</v>
+        <v>41.15676993756619</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258599</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M38" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514381</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3474312188467</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>60.96819813630916</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.606348862028231</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.55650193384716</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.95015307181882</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>212.1972505846461</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N41" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936138</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>9.513581581691509</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12822383310918</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
         <v>18.54388781565676</v>
@@ -37911,10 +37911,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.54604617739503</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.55258824350366</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>212.1972505846461</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>47.19277018258599</v>
+        <v>101.8890626626511</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606198</v>
+        <v>76.08878094514382</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936138</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
@@ -38038,7 +38038,7 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310917</v>
+        <v>46.12822383310918</v>
       </c>
       <c r="S44" t="n">
         <v>13.49277465702784</v>
@@ -38151,10 +38151,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.55258824350366</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>28.54604617739503</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
